--- a/Documentación/matriz RACI.xlsx
+++ b/Documentación/matriz RACI.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="amHlT244ol/Xyy1yUJFTrqqWsuHKRZt1RKCbtV2AcBk="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="E7Q6WH1Tbezx7UB+OcfdK2X2y75r2K48tg0ppirGtFU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>Matriz de asignación de responsabilidades (RACI)</t>
   </si>
@@ -31,118 +31,55 @@
     <t>ID Actividad</t>
   </si>
   <si>
-    <t>Angie Silva</t>
-  </si>
-  <si>
-    <t>Gastón Sanchez</t>
-  </si>
-  <si>
-    <t>Cristopher Curin</t>
-  </si>
-  <si>
-    <t>Vicente Quiero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisca Mena </t>
-  </si>
-  <si>
-    <t>Reuniones con Skateholders</t>
+    <t>Francisca Espinosa</t>
+  </si>
+  <si>
+    <t>Felipe Gonzalez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levantamiento y análisis de requerimientos. </t>
   </si>
   <si>
     <t>R/A</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Análisis de factibilidad</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Levantamiento de requisitos</t>
+  </si>
+  <si>
+    <t>Análisis de requisitos</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Diseño del sistema</t>
+  </si>
+  <si>
+    <t>Desarrollo e implementación.</t>
+  </si>
+  <si>
+    <t>Desarrollo del BackEnd y servidor web.</t>
+  </si>
+  <si>
+    <t>Pruebas y verificación.</t>
+  </si>
+  <si>
+    <t>Pruebas de funcionalidad y de integración</t>
+  </si>
+  <si>
     <t>I</t>
   </si>
   <si>
-    <t>Identificar partes interesadas</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Establecer criterios de evaluación de riesgos</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Definir objetivos del análisis de riesgos</t>
-  </si>
-  <si>
-    <t>Analisis de entorno interno y externo</t>
-  </si>
-  <si>
-    <t>Identificacion de fallas potenciales</t>
-  </si>
-  <si>
-    <t>Determinar el alcance y contexto organizacional</t>
-  </si>
-  <si>
-    <t>Registro preliminar de riesgos</t>
-  </si>
-  <si>
-    <t>Evaluar impacto de fallas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clasificar riesgos por probabilidad e impacto </t>
-  </si>
-  <si>
-    <t>Analisis de dependencia entre sistemas</t>
-  </si>
-  <si>
-    <t>Selección de plataforma de desarrollo</t>
-  </si>
-  <si>
-    <t>Creación de base de datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrollo de diseño </t>
-  </si>
-  <si>
-    <t>A/R</t>
-  </si>
-  <si>
-    <t>Desarrollo de software</t>
-  </si>
-  <si>
-    <t>Integración de base de datos con programa</t>
-  </si>
-  <si>
-    <t>Creación de documentación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compatibilidad de sistemas </t>
-  </si>
-  <si>
-    <t>Pruebas de funcionalidad</t>
-  </si>
-  <si>
-    <t>Pruebas de estrés</t>
-  </si>
-  <si>
-    <t>Pruebas de integración</t>
-  </si>
-  <si>
-    <t>Pruebas de seguridad</t>
-  </si>
-  <si>
-    <t>Documentación de pruebas</t>
-  </si>
-  <si>
-    <t>Capacitación a stakeholders</t>
-  </si>
-  <si>
-    <t>Validación con usuarios</t>
-  </si>
-  <si>
-    <t>Ajustes de procesos</t>
-  </si>
-  <si>
-    <t>Implementacion</t>
+    <t>Documentación y entrega.</t>
   </si>
   <si>
     <t>Actividades y colaboradores</t>
@@ -336,7 +273,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -359,6 +296,11 @@
       <sz val="11.0"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -448,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -459,8 +401,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -469,16 +410,26 @@
     <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="3" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="3" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -703,8 +654,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="13.71"/>
     <col customWidth="1" min="2" max="2" width="45.0"/>
-    <col customWidth="1" min="3" max="7" width="19.86"/>
-    <col customWidth="1" min="8" max="28" width="8.86"/>
+    <col customWidth="1" min="3" max="4" width="19.86"/>
+    <col customWidth="1" min="5" max="25" width="8.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -712,13 +663,8 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
+    </row>
+    <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
@@ -729,54 +675,34 @@
         <v>2</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="8">
         <v>1.0</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -784,22 +710,13 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -807,22 +724,13 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>11</v>
+      <c r="C9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -830,22 +738,13 @@
         <v>4.0</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -853,22 +752,13 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>11</v>
+      <c r="C11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
@@ -876,22 +766,13 @@
         <v>6.0</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
@@ -899,22 +780,13 @@
         <v>7.0</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -922,460 +794,142 @@
         <v>8.0</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8">
         <v>9.0</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="8">
         <v>10.0</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>11</v>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="8">
-        <v>11.0</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="A17" s="8"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="8">
-        <v>12.0</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="A18" s="8"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="8">
-        <v>13.0</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A19" s="8"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="8">
-        <v>14.0</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="A20" s="8"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="8">
-        <v>15.0</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="A21" s="8"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="8">
-        <v>16.0</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A22" s="8"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="8">
-        <v>17.0</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A23" s="8"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="8">
-        <v>18.0</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="A24" s="8"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="8">
-        <v>19.0</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A25" s="8"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="8">
-        <v>20.0</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="A26" s="8"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="8">
-        <v>21.0</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="A27" s="8"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="8">
-        <v>22.0</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="A28" s="8"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="8">
-        <v>23.0</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="A29" s="8"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="8">
-        <v>24.0</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A30" s="8"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="8">
-        <v>25.0</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A31" s="8"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="8">
-        <v>26.0</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A32" s="8"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="8">
-        <v>27.0</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="A33" s="8"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2345,10 +1899,9 @@
     <row r="999" ht="14.25" customHeight="1"/>
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:E3"/>
+  <mergeCells count="2">
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A2:D3"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -2373,107 +1926,107 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>44</v>
+      <c r="A2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="13" t="str">
+      <c r="A3" s="16" t="str">
         <f>'Recursos por Actividad'!A6</f>
         <v>ID Actividad</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>45</v>
+      <c r="B3" s="16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="13" t="str">
+      <c r="A4" s="16" t="str">
         <f>'Recursos por Actividad'!B6</f>
         <v>Actividad</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>46</v>
+      <c r="B4" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>48</v>
+      <c r="A5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="13" t="str">
+      <c r="A6" s="16" t="str">
         <f>'Recursos por Actividad'!C5</f>
         <v>Roles / Responsabilidades</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>49</v>
+      <c r="B6" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="11"/>
+      <c r="A8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>52</v>
+      <c r="A9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>54</v>
+      <c r="A10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>55</v>
+      <c r="A11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>56</v>
+      <c r="A12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>57</v>
+      <c r="A13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" ht="14.25" customHeight="1"/>
     <row r="16" ht="14.25" customHeight="1"/>
